--- a/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -11,28 +11,33 @@
     <sheet name="7__783d1f36-c06c-341" sheetId="2" r:id="rId2"/>
     <sheet name="8__783d1f36-c06c-341" sheetId="3" r:id="rId3"/>
     <sheet name="9__6354e3c7-4619-3a0" sheetId="4" r:id="rId4"/>
-    <sheet name="11__09af3f09-68b9-35" sheetId="5" r:id="rId5"/>
-    <sheet name="11__e3601430-2dd6-33" sheetId="6" r:id="rId6"/>
-    <sheet name="11__bb79b34d-1e9c-34" sheetId="7" r:id="rId7"/>
-    <sheet name="12__24662bf7-9672-32" sheetId="8" r:id="rId8"/>
-    <sheet name="16__2307c038-33fd-3b" sheetId="9" r:id="rId9"/>
-    <sheet name="16__6bafd8f6-8a94-32" sheetId="10" r:id="rId10"/>
-    <sheet name="17__65990df0-8285-3b" sheetId="11" r:id="rId11"/>
-    <sheet name="15__2307c038-33fd-3b" sheetId="12" r:id="rId12"/>
-    <sheet name="18__8a5d8593-402f-32" sheetId="13" r:id="rId13"/>
-    <sheet name="19__85574d29-1138-3d" sheetId="14" r:id="rId14"/>
-    <sheet name="4_1_e8b583fe-7a0d-33" sheetId="15" r:id="rId15"/>
-    <sheet name="4_2_e8b583fe-7a0d-33" sheetId="16" r:id="rId16"/>
-    <sheet name="4_3_e8b583fe-7a0d-33" sheetId="17" r:id="rId17"/>
-    <sheet name="4_4_dfb38738-8ae6-35" sheetId="18" r:id="rId18"/>
-    <sheet name="4_5_dfb38738-8ae6-35" sheetId="19" r:id="rId19"/>
+    <sheet name="20__817597a4-1bac-38" sheetId="5" r:id="rId5"/>
+    <sheet name="11__09af3f09-68b9-35" sheetId="6" r:id="rId6"/>
+    <sheet name="11__e3601430-2dd6-33" sheetId="7" r:id="rId7"/>
+    <sheet name="11__bb79b34d-1e9c-34" sheetId="8" r:id="rId8"/>
+    <sheet name="12__24662bf7-9672-32" sheetId="9" r:id="rId9"/>
+    <sheet name="5__be4d92ca-40d3-32d" sheetId="10" r:id="rId10"/>
+    <sheet name="5__994bc063-83b4-3b8" sheetId="11" r:id="rId11"/>
+    <sheet name="5__673995c5-d2ab-3ea" sheetId="12" r:id="rId12"/>
+    <sheet name="5__67dae025-9104-3cc" sheetId="13" r:id="rId13"/>
+    <sheet name="16__2307c038-33fd-3b" sheetId="14" r:id="rId14"/>
+    <sheet name="16__6bafd8f6-8a94-32" sheetId="15" r:id="rId15"/>
+    <sheet name="17__65990df0-8285-3b" sheetId="16" r:id="rId16"/>
+    <sheet name="15__2307c038-33fd-3b" sheetId="17" r:id="rId17"/>
+    <sheet name="18__8a5d8593-402f-32" sheetId="18" r:id="rId18"/>
+    <sheet name="19__85574d29-1138-3d" sheetId="19" r:id="rId19"/>
+    <sheet name="4_1_e8b583fe-7a0d-33" sheetId="20" r:id="rId20"/>
+    <sheet name="4_2_e8b583fe-7a0d-33" sheetId="21" r:id="rId21"/>
+    <sheet name="4_3_e8b583fe-7a0d-33" sheetId="22" r:id="rId22"/>
+    <sheet name="4_4_dfb38738-8ae6-35" sheetId="23" r:id="rId23"/>
+    <sheet name="4_5_dfb38738-8ae6-35" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="120">
   <si>
     <t>rows</t>
   </si>
@@ -49,12 +54,6 @@
     <t xml:space="preserve"> Cash at bank and on hand</t>
   </si>
   <si>
-    <t>Cash at banks earns interest at floating rates based on daily bank deposit rates. Cash at banks earns interest at floating rates based on daily bank deposit rates.</t>
-  </si>
-  <si>
-    <t>Trade and other receivables Trade and other receivables</t>
-  </si>
-  <si>
     <t>$000</t>
   </si>
   <si>
@@ -67,18 +66,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>8. Inventories 8. Inventories</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Raw materials</t>
   </si>
   <si>
     <t xml:space="preserve"> Finished goods</t>
   </si>
   <si>
-    <t>Current Current</t>
-  </si>
-  <si>
     <t>Current Foreign exchange derivatives at fair value</t>
   </si>
   <si>
@@ -88,15 +81,9 @@
     <t xml:space="preserve">Current </t>
   </si>
   <si>
-    <t>Non-current Non-current</t>
-  </si>
-  <si>
     <t>Non-current Electricity derivatives at fair value</t>
   </si>
   <si>
-    <t xml:space="preserve">Southern Cross Southern Cross </t>
-  </si>
-  <si>
     <t>Southern Cross Aluminium Pty Ltd Investment</t>
   </si>
   <si>
@@ -121,9 +108,6 @@
     <t xml:space="preserve"> Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
   </si>
   <si>
-    <t>Cost Cost</t>
-  </si>
-  <si>
     <t>Cost At 1 January 2020</t>
   </si>
   <si>
@@ -139,9 +123,6 @@
     <t>Cost At 31 December 2020</t>
   </si>
   <si>
-    <t>Accumulated depreciation and impairment Accumulated depreciation and impairment</t>
-  </si>
-  <si>
     <t>Accumulated depreciation and impairment At1 January 2020</t>
   </si>
   <si>
@@ -157,9 +138,6 @@
     <t>Accumulated depreciation and impairment At 31 December 2020</t>
   </si>
   <si>
-    <t>Net book value Net book value</t>
-  </si>
-  <si>
     <t>Net book value At 31 December 2020</t>
   </si>
   <si>
@@ -181,6 +159,96 @@
     <t>Total $000</t>
   </si>
   <si>
+    <t>Current income tax: Current income tax benefit</t>
+  </si>
+  <si>
+    <t>Current income tax: Adjustments in respect of current income tax of previous year</t>
+  </si>
+  <si>
+    <t>Deferred income tax: Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Income tax benefit reported in the statement of profit or loss and other comprehensive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accounting loss before income tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At Australia's statutory income tax rate of 30% (2019: 30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amounts not deductible for tax purposes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjustments in respect of current income tax of previous year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Income tax benefit reported in profit or loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As of 1 January</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Income tax benefit during the year recognised in profit or loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Income tax benefit during the year recognised in other comprehensive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As at 31 December</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trade and other receivables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Property, plant and equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right-of-use assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trade and other payables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lease liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARO assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deferred tax benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Net deferred tax assets/liabilities)</t>
+  </si>
+  <si>
+    <t>as follows: Deferred tax assets</t>
+  </si>
+  <si>
+    <t>as follows: Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>as follows: Deferred tax assets/liabilities), net</t>
+  </si>
+  <si>
+    <t>Statement of profit or loss Statement of financial and other comprehensive position income $000</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Bank borrowings</t>
   </si>
   <si>
@@ -238,24 +306,12 @@
     <t>Totals</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trade and other payables</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Electricity derivatives at fair value through OCI</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lease liabilities</t>
-  </si>
-  <si>
-    <t>16. Borrowings 16. Borrowings</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
-    <t>Cash flow hedge reserve Cash flow hedge reserve</t>
-  </si>
-  <si>
     <t>Cash flow hedge reserve Balance at 1 January</t>
   </si>
   <si>
@@ -268,9 +324,6 @@
     <t xml:space="preserve">Cash flow hedge reserve </t>
   </si>
   <si>
-    <t>Reserve in joint venture Reserve in joint venture</t>
-  </si>
-  <si>
     <t>Reserve in joint venture Balance at 1 January</t>
   </si>
   <si>
@@ -283,9 +336,6 @@
     <t xml:space="preserve">Reserve in joint venture </t>
   </si>
   <si>
-    <t>Other reserve Other reserve</t>
-  </si>
-  <si>
     <t>Other reserve Balance at 1 January</t>
   </si>
   <si>
@@ -295,9 +345,6 @@
     <t xml:space="preserve">Other reserve </t>
   </si>
   <si>
-    <t>Total Total</t>
-  </si>
-  <si>
     <t>Total Balance at 1 January</t>
   </si>
   <si>
@@ -307,18 +354,12 @@
     <t>Total Balance at 31 December</t>
   </si>
   <si>
-    <t>Type of goods Type of goods</t>
-  </si>
-  <si>
     <t>Type of goods Sale of goods</t>
   </si>
   <si>
     <t>Type of goods Total revenue from contracts with customers</t>
   </si>
   <si>
-    <t>Geographical markets Geographical markets</t>
-  </si>
-  <si>
     <t>Geographical markets Japan</t>
   </si>
   <si>
@@ -328,24 +369,15 @@
     <t>Geographical markets Total revenue from contracts with customers</t>
   </si>
   <si>
-    <t>Timing of revenue recognition Timing of revenue recognition</t>
-  </si>
-  <si>
     <t>Timing of revenue recognition Goods transferred at a point in time</t>
   </si>
   <si>
     <t>Timing of revenue recognition Total revenue from contracts with customers</t>
   </si>
   <si>
-    <t>4.2 Other revenue 4.2 Other revenue</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Commission revenue</t>
   </si>
   <si>
-    <t>4.3 Other income 4.3 Other income</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Government grants</t>
   </si>
   <si>
@@ -359,9 +391,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Bank interest</t>
-  </si>
-  <si>
-    <t>4.5 Finance costs 4.5 Finance costs</t>
   </si>
   <si>
     <t xml:space="preserve"> Interest expenses</t>
@@ -725,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -761,72 +790,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2020</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5">
         <v>28259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -835,6 +808,1457 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8">
+        <v>-1529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>3944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>-28082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>8425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>-8217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8">
+        <v>-20678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10">
+        <v>-2276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13">
+        <v>-3944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>-11017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>13747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6">
+        <v>-14534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7">
+        <v>-1529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>-11017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>-302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>-13952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>16238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>-4213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15">
+        <v>24223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16">
+        <v>-18466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+      <c r="D18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>2019</v>
+      </c>
+      <c r="D19">
+        <v>-12662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21">
+        <v>-443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22">
+        <v>-10221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>2019</v>
+      </c>
+      <c r="D24">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>2019</v>
+      </c>
+      <c r="D25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <v>2019</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>2019</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30">
+        <v>-11017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>2019</v>
+      </c>
+      <c r="D31">
+        <v>12309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>2019</v>
+      </c>
+      <c r="D32">
+        <v>-23326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>2019</v>
+      </c>
+      <c r="D33">
+        <v>-11017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>2020</v>
+      </c>
+      <c r="D35">
+        <v>-12662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="D36">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>2020</v>
+      </c>
+      <c r="D37">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>2020</v>
+      </c>
+      <c r="D38">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>2020</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>2020</v>
+      </c>
+      <c r="D40">
+        <v>-11567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>2020</v>
+      </c>
+      <c r="D42">
+        <v>-881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43">
+        <v>2020</v>
+      </c>
+      <c r="D43">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>2020</v>
+      </c>
+      <c r="D44">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>2020</v>
+      </c>
+      <c r="D45">
+        <v>-16775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>2020</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>2020</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>2020</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>2020</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <v>2019</v>
+      </c>
+      <c r="D50">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
+      </c>
+      <c r="D51">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>2019</v>
+      </c>
+      <c r="D52">
+        <v>-1034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53">
+        <v>2019</v>
+      </c>
+      <c r="D53">
+        <v>-443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>2019</v>
+      </c>
+      <c r="D54">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>2019</v>
+      </c>
+      <c r="D55">
+        <v>-643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>2019</v>
+      </c>
+      <c r="D56">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57">
+        <v>2019</v>
+      </c>
+      <c r="D57">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>2019</v>
+      </c>
+      <c r="D58">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>2019</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>2019</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61">
+        <v>2019</v>
+      </c>
+      <c r="D61">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>2019</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>2019</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>2019</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>2019</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -858,10 +2282,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -872,10 +2296,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -886,10 +2310,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -900,10 +2324,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -914,10 +2338,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -928,10 +2352,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -942,10 +2366,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -956,10 +2380,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -970,10 +2394,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -984,10 +2408,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -998,10 +2422,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1012,10 +2436,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -1026,10 +2450,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -1040,10 +2464,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -1054,10 +2478,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -1068,10 +2492,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -1085,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -1109,10 +2533,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1123,10 +2547,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1137,10 +2561,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1151,10 +2575,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1165,10 +2589,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -1179,10 +2603,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -1193,10 +2617,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1207,10 +2631,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1221,10 +2645,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1235,10 +2659,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1249,10 +2673,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -1263,10 +2687,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -1277,10 +2701,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -1291,10 +2715,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -1305,10 +2729,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -1319,10 +2743,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -1333,10 +2757,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -1347,10 +2771,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -1361,10 +2785,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -1375,10 +2799,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -1389,10 +2813,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -1403,10 +2827,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -1417,10 +2841,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -1431,10 +2855,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -1445,10 +2869,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -1459,10 +2883,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>2020</v>
@@ -1473,10 +2897,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -1487,10 +2911,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -1501,10 +2925,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>2020</v>
@@ -1515,10 +2939,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>2020</v>
@@ -1529,10 +2953,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -1543,10 +2967,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -1557,10 +2981,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -1571,10 +2995,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -1585,10 +3009,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>2020</v>
@@ -1599,10 +3023,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>2020</v>
@@ -1616,9 +3040,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1640,10 +3064,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1654,10 +3078,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1668,10 +3092,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1682,10 +3106,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1696,10 +3120,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -1710,30 +3134,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7">
         <v>3895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2020</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1765,10 +3175,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1779,10 +3189,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -1796,9 +3206,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1820,304 +3230,304 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>29543</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
       <c r="D3">
-        <v>29543</v>
+        <v>-31598</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>-31598</v>
+        <v>-2055</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5">
-        <v>-2055</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
       <c r="D6">
-        <v>2020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2020</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-8448</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9">
-        <v>5922</v>
+        <v>-2526</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>-8448</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>-2526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
       <c r="D12">
-        <v>2020</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>2020</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
       <c r="D15">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>2020</v>
       </c>
       <c r="D16">
-        <v>325</v>
+        <v>35790</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
       <c r="D17">
-        <v>2020</v>
+        <v>-40046</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-4256</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>41448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D20">
-        <v>35790</v>
+        <v>-11905</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D21">
-        <v>-40046</v>
+        <v>29543</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D22">
-        <v>-4256</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>2019</v>
@@ -2128,52 +3538,52 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>2019</v>
       </c>
       <c r="D24">
-        <v>41448</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>2019</v>
       </c>
       <c r="D25">
-        <v>-11905</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>2019</v>
       </c>
       <c r="D26">
-        <v>29543</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>2019</v>
@@ -2184,10 +3594,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>2019</v>
@@ -2198,211 +3608,99 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>2019</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>2019</v>
       </c>
       <c r="D30">
-        <v>3049</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>2019</v>
       </c>
       <c r="D31">
-        <v>2873</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>2019</v>
       </c>
       <c r="D32">
-        <v>5922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>2019</v>
       </c>
       <c r="D33">
-        <v>2019</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>2019</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-9032</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>2019</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>2019</v>
-      </c>
-      <c r="D36">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>2019</v>
-      </c>
-      <c r="D37">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>2019</v>
-      </c>
-      <c r="D38">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>2019</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>2019</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>2019</v>
-      </c>
-      <c r="D41">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>2019</v>
-      </c>
-      <c r="D42">
-        <v>-9032</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>2019</v>
-      </c>
-      <c r="D43">
         <v>35790</v>
       </c>
     </row>
@@ -2411,9 +3709,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2435,310 +3733,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
       <c r="D3">
-        <v>214911</v>
+        <v>11927</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>214911</v>
+        <v>13624</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D6">
-        <v>190814</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D7">
-        <v>24097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2020</v>
-      </c>
-      <c r="D8">
-        <v>214911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2020</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2020</v>
-      </c>
-      <c r="D10">
-        <v>214911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2020</v>
-      </c>
-      <c r="D11">
-        <v>214911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>2020</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2019</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2019</v>
-      </c>
-      <c r="D14">
-        <v>229785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>2019</v>
-      </c>
-      <c r="D15">
-        <v>229785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>2019</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>2019</v>
-      </c>
-      <c r="D17">
-        <v>197789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>2019</v>
-      </c>
-      <c r="D18">
-        <v>31996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>2019</v>
-      </c>
-      <c r="D19">
-        <v>229785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>2019</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21">
-        <v>229785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22">
-        <v>229785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>2019</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>11999</v>
       </c>
     </row>
   </sheetData>
@@ -2746,9 +3820,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2770,58 +3844,198 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2">
-        <v>775</v>
+        <v>214911</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>214911</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D4">
-        <v>780</v>
+        <v>190814</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>214911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>214911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>214911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>229785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10">
+        <v>229785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11">
+        <v>197789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12">
+        <v>31996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13">
+        <v>229785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14">
+        <v>229785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15">
+        <v>229785</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +4043,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <v>780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2853,10 +4122,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -2867,10 +4136,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -2881,10 +4150,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -2895,10 +4164,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -2909,10 +4178,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -2923,10 +4192,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -2937,10 +4206,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -2951,10 +4220,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -2965,10 +4234,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -2979,10 +4248,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -2996,9 +4265,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3020,10 +4289,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3034,44 +4303,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4">
         <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +4320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3103,10 +4344,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3117,10 +4358,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3131,10 +4372,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3145,10 +4386,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -3159,10 +4400,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3173,155 +4414,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
       <c r="D7">
         <v>-618</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-      <c r="D2">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
-      </c>
-      <c r="D3">
-        <v>11927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2020</v>
-      </c>
-      <c r="D4">
-        <v>13624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2020</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7">
-        <v>10609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2019</v>
-      </c>
-      <c r="D8">
-        <v>11999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2019</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3353,10 +4455,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3367,10 +4469,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3381,10 +4483,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3395,10 +4497,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -3409,10 +4511,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3423,10 +4525,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -3441,201 +4543,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2020</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2020</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>2020</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>2020</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2019</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2019</v>
-      </c>
-      <c r="D9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2019</v>
-      </c>
-      <c r="D10">
-        <v>29702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2019</v>
-      </c>
-      <c r="D11">
-        <v>29753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>2019</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2019</v>
-      </c>
-      <c r="D13">
-        <v>12453</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3659,10 +4566,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3673,10 +4580,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3687,13 +4594,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3701,13 +4608,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3715,58 +4622,58 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D7">
-        <v>47672</v>
+        <v>29702</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2019</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>29753</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
       <c r="D9">
-        <v>54535</v>
+        <v>12453</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +4681,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>47672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5">
+        <v>54535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3798,10 +4800,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3812,10 +4814,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3826,10 +4828,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3840,10 +4842,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -3854,10 +4856,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3868,10 +4870,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -3882,10 +4884,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -3896,10 +4898,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -3913,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3937,10 +4939,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3951,10 +4953,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -3968,9 +4970,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3992,388 +4994,388 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>90430</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
       <c r="D3">
-        <v>90430</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>376</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5">
-        <v>-149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>90731</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7">
-        <v>90731</v>
+        <v>90235</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
       <c r="C8">
         <v>2020</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9">
-        <v>90235</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>351</v>
+        <v>90489</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
       <c r="D12">
-        <v>-154</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D13">
-        <v>90489</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>2020</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>314181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
       <c r="D15">
-        <v>242</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D16">
-        <v>195</v>
+        <v>-1122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
       <c r="D18">
-        <v>314181</v>
+        <v>318217</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19">
-        <v>5232</v>
+        <v>312388</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20">
-        <v>-1122</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21">
-        <v>-74</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
       <c r="D22">
-        <v>318217</v>
+        <v>-1182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>316651</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24">
-        <v>312388</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D25">
-        <v>827</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>2020</v>
       </c>
       <c r="D26">
-        <v>4618</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>2020</v>
       </c>
       <c r="D27">
-        <v>-1182</v>
+        <v>34643</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>2020</v>
       </c>
       <c r="D28">
-        <v>316651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -4384,30 +5386,30 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>2020</v>
       </c>
       <c r="D30">
-        <v>1566</v>
+        <v>36271</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D31">
-        <v>1793</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4415,7 +5417,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -4429,13 +5431,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2020</v>
       </c>
       <c r="D33">
-        <v>1628</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4443,13 +5445,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>2020</v>
       </c>
       <c r="D34">
-        <v>34643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4457,13 +5459,13 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>2020</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>22226</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4471,13 +5473,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>2020</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>14045</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4485,105 +5487,105 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D37">
-        <v>36271</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>2020</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>2020</v>
       </c>
       <c r="D39">
-        <v>1628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>2020</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
       <c r="C41">
         <v>2020</v>
       </c>
       <c r="D41">
-        <v>20598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>2020</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>2020</v>
       </c>
       <c r="D43">
-        <v>22226</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>2020</v>
@@ -4594,69 +5596,69 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>2020</v>
       </c>
       <c r="D45">
-        <v>14045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C46">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D46">
-        <v>1743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>2020</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>795</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C48">
         <v>2020</v>
       </c>
       <c r="D48">
-        <v>2538</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C49">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4664,52 +5666,52 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>2020</v>
       </c>
       <c r="D50">
-        <v>-65</v>
+        <v>408777</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>2020</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>40251</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C52">
         <v>2020</v>
       </c>
       <c r="D52">
-        <v>2473</v>
+        <v>-1336</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -4720,379 +5722,114 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <v>2020</v>
       </c>
       <c r="D54">
-        <v>795</v>
+        <v>447692</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C55">
         <v>2020</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>405046</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C56">
         <v>2020</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>884</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
       <c r="C57">
         <v>2020</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>25567</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C58">
         <v>2020</v>
       </c>
       <c r="D58">
-        <v>795</v>
+        <v>-1336</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C59">
         <v>2020</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>430161</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C60">
         <v>2020</v>
       </c>
       <c r="D60">
-        <v>1678</v>
+        <v>17531</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C61">
         <v>2019</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62">
-        <v>2020</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63">
-        <v>2020</v>
-      </c>
-      <c r="D63">
-        <v>408777</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64">
-        <v>2020</v>
-      </c>
-      <c r="D64">
-        <v>40251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65">
-        <v>2020</v>
-      </c>
-      <c r="D65">
-        <v>-1336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66">
-        <v>2020</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67">
-        <v>2020</v>
-      </c>
-      <c r="D67">
-        <v>447692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68">
-        <v>2020</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69">
-        <v>2020</v>
-      </c>
-      <c r="D69">
-        <v>405046</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70">
-        <v>2020</v>
-      </c>
-      <c r="D70">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71">
-        <v>2020</v>
-      </c>
-      <c r="D71">
-        <v>25567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72">
-        <v>2020</v>
-      </c>
-      <c r="D72">
-        <v>-1336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73">
-        <v>2020</v>
-      </c>
-      <c r="D73">
-        <v>430161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74">
-        <v>2020</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75">
-        <v>2020</v>
-      </c>
-      <c r="D75">
-        <v>17531</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76">
-        <v>2019</v>
-      </c>
-      <c r="D76">
         <v>3731</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2019</v>
-      </c>
-      <c r="D3">
-        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="122">
   <si>
     <t>rows</t>
   </si>
@@ -51,25 +51,25 @@
     <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cash at bank and on hand</t>
+    <t>None Cash at bank and on hand</t>
   </si>
   <si>
     <t>$000</t>
   </si>
   <si>
-    <t xml:space="preserve"> GST receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Related party receivables (Note 20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Raw materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finished goods</t>
+    <t>None GST receivable</t>
+  </si>
+  <si>
+    <t>None Related party receivables (Note 20)</t>
+  </si>
+  <si>
+    <t>None Total</t>
+  </si>
+  <si>
+    <t>None Raw materials</t>
+  </si>
+  <si>
+    <t>None Finished goods</t>
   </si>
   <si>
     <t>Current Foreign exchange derivatives at fair value</t>
@@ -78,7 +78,7 @@
     <t>Current Electricity derivatives at fair value</t>
   </si>
   <si>
-    <t xml:space="preserve">Current </t>
+    <t>Current Total</t>
   </si>
   <si>
     <t>Non-current Electricity derivatives at fair value</t>
@@ -93,19 +93,19 @@
     <t>Ownership interest $000</t>
   </si>
   <si>
-    <t xml:space="preserve"> At 1 January</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Share of gain/(loss) of joint venture, net of tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Share of other comprehensive income, net of tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carrying value of investment at end of year</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
+    <t>None At 1 January</t>
+  </si>
+  <si>
+    <t>None Share of gain/(loss) of joint venture, net of tax</t>
+  </si>
+  <si>
+    <t>None Share of other comprehensive income, net of tax</t>
+  </si>
+  <si>
+    <t>None Carrying value of investment at end of year</t>
+  </si>
+  <si>
+    <t>None Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
   </si>
   <si>
     <t>Cost At 1 January 2020</t>
@@ -171,70 +171,70 @@
     <t>Income tax benefit reported in the statement of profit or loss and other comprehensive income</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accounting loss before income tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At Australia's statutory income tax rate of 30% (2019: 30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amounts not deductible for tax purposes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adjustments in respect of current income tax of previous year</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Income tax benefit reported in profit or loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As of 1 January</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Income tax benefit during the year recognised in profit or loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Income tax benefit during the year recognised in other comprehensive income</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As at 31 December</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trade and other receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financial assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Property, plant and equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right-of-use assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trade and other payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Provisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lease liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financial liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ARO assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deferred tax benefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Net deferred tax assets/liabilities)</t>
+    <t>None Accounting loss before income tax</t>
+  </si>
+  <si>
+    <t>None At Australia's statutory income tax rate of 30% (2019: 30%)</t>
+  </si>
+  <si>
+    <t>None Amounts not deductible for tax purposes</t>
+  </si>
+  <si>
+    <t>None Adjustments in respect of current income tax of previous year</t>
+  </si>
+  <si>
+    <t>None Others</t>
+  </si>
+  <si>
+    <t>None Income tax benefit reported in profit or loss</t>
+  </si>
+  <si>
+    <t>None As of 1 January</t>
+  </si>
+  <si>
+    <t>None Income tax benefit during the year recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>None Income tax benefit during the year recognised in other comprehensive income</t>
+  </si>
+  <si>
+    <t>None As at 31 December</t>
+  </si>
+  <si>
+    <t>None Trade and other receivables</t>
+  </si>
+  <si>
+    <t>None Financial assets</t>
+  </si>
+  <si>
+    <t>None Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>None Right-of-use assets</t>
+  </si>
+  <si>
+    <t>None Other assets</t>
+  </si>
+  <si>
+    <t>None Trade and other payables</t>
+  </si>
+  <si>
+    <t>None Provisions</t>
+  </si>
+  <si>
+    <t>None Lease liabilities</t>
+  </si>
+  <si>
+    <t>None Financial liabilities</t>
+  </si>
+  <si>
+    <t>None ARO assets</t>
+  </si>
+  <si>
+    <t>None Deferred tax benefit</t>
+  </si>
+  <si>
+    <t>None Net deferred tax assets/liabilities)</t>
   </si>
   <si>
     <t>as follows: Deferred tax assets</t>
@@ -249,19 +249,19 @@
     <t>Statement of profit or loss Statement of financial and other comprehensive position income $000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bank borrowings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> facilities facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Utilised </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Utilised bank guarantees</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Balance at 31 December Balance at 31 December</t>
+    <t>None Bank borrowings</t>
+  </si>
+  <si>
+    <t>None facilities facilities</t>
+  </si>
+  <si>
+    <t>None Utilised nan</t>
+  </si>
+  <si>
+    <t>None Utilised bank guarantees</t>
+  </si>
+  <si>
+    <t>None Balance at 31 December Balance at 31 December</t>
   </si>
   <si>
     <t>Multi-option facilities $000</t>
@@ -270,22 +270,22 @@
     <t>Bank guarantee facilities $000</t>
   </si>
   <si>
-    <t xml:space="preserve"> At 1 January 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arising during the year</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unwinding of discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At31 December 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non-current</t>
+    <t>None At 1 January 2020</t>
+  </si>
+  <si>
+    <t>None Arising during the year</t>
+  </si>
+  <si>
+    <t>None Unwinding of discount</t>
+  </si>
+  <si>
+    <t>None At31 December 2020</t>
+  </si>
+  <si>
+    <t>None 2020 Current</t>
+  </si>
+  <si>
+    <t>None 2020 Non-current</t>
   </si>
   <si>
     <t>Employee benefits</t>
@@ -306,10 +306,16 @@
     <t>Totals</t>
   </si>
   <si>
-    <t xml:space="preserve"> Electricity derivatives at fair value through OCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
+    <t>None Electricity derivatives at fair value through OCI</t>
+  </si>
+  <si>
+    <t>None Current</t>
+  </si>
+  <si>
+    <t>None Non-current</t>
+  </si>
+  <si>
+    <t>None 155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
     <t>Cash flow hedge reserve Balance at 1 January</t>
@@ -321,7 +327,7 @@
     <t>Cash flow hedge reserve Balance at 31 December</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash flow hedge reserve </t>
+    <t>Cash flow hedge reserve Total</t>
   </si>
   <si>
     <t>Reserve in joint venture Balance at 1 January</t>
@@ -333,7 +339,7 @@
     <t>Reserve in joint venture Balance at 31 December</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserve in joint venture </t>
+    <t>Reserve in joint venture Total</t>
   </si>
   <si>
     <t>Other reserve Balance at 1 January</t>
@@ -342,7 +348,7 @@
     <t>Other reserve Balance at 31 December</t>
   </si>
   <si>
-    <t xml:space="preserve">Other reserve </t>
+    <t>Other reserve Total</t>
   </si>
   <si>
     <t>Total Balance at 1 January</t>
@@ -375,28 +381,28 @@
     <t>Timing of revenue recognition Total revenue from contracts with customers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Commission revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Government grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Insurance proceeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foreign exchange gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interest expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discount unwind on the provision for asset retirement obligation</t>
+    <t>None Commission revenue</t>
+  </si>
+  <si>
+    <t>None Government grants</t>
+  </si>
+  <si>
+    <t>None Insurance proceeds</t>
+  </si>
+  <si>
+    <t>None Foreign exchange gain</t>
+  </si>
+  <si>
+    <t>None Other</t>
+  </si>
+  <si>
+    <t>None Bank interest</t>
+  </si>
+  <si>
+    <t>None Interest expenses</t>
+  </si>
+  <si>
+    <t>None Discount unwind on the provision for asset retirement obligation</t>
   </si>
 </sst>
 </file>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3134,7 +3140,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3189,7 +3195,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3258,7 +3264,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -3356,7 +3362,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -3370,7 +3376,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -3398,7 +3404,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -3440,7 +3446,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -3468,7 +3474,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -3496,7 +3502,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -3524,7 +3530,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -3538,7 +3544,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -3552,7 +3558,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -3566,7 +3572,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -3608,7 +3614,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -3622,7 +3628,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -3636,7 +3642,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -3664,7 +3670,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -3692,7 +3698,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -3844,7 +3850,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3858,7 +3864,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3886,7 +3892,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3900,7 +3906,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -3914,7 +3920,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -3928,7 +3934,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -3956,7 +3962,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -3970,7 +3976,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -3984,7 +3990,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -3998,7 +4004,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -4012,7 +4018,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -4026,7 +4032,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4067,7 +4073,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4081,7 +4087,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4122,7 +4128,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4136,7 +4142,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4150,7 +4156,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4164,7 +4170,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4192,7 +4198,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4206,7 +4212,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4220,7 +4226,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4234,7 +4240,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4303,7 +4309,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4344,7 +4350,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4358,7 +4364,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4386,7 +4392,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4400,7 +4406,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>

--- a/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/89310a5f-45fc-4d11-bcc1-661a581e3891/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="136">
   <si>
     <t>rows</t>
   </si>
@@ -51,12 +51,18 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash at bank and on hand</t>
   </si>
   <si>
     <t>$000</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>None GST receivable</t>
   </si>
   <si>
@@ -66,12 +72,18 @@
     <t>None Total</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>None Raw materials</t>
   </si>
   <si>
     <t>None Finished goods</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Current Foreign exchange derivatives at fair value</t>
   </si>
   <si>
@@ -84,6 +96,9 @@
     <t>Non-current Electricity derivatives at fair value</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Southern Cross Aluminium Pty Ltd Investment</t>
   </si>
   <si>
@@ -93,6 +108,9 @@
     <t>Ownership interest $000</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>None At 1 January</t>
   </si>
   <si>
@@ -159,6 +177,9 @@
     <t>Total $000</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Current income tax: Current income tax benefit</t>
   </si>
   <si>
@@ -171,6 +192,9 @@
     <t>Income tax benefit reported in the statement of profit or loss and other comprehensive income</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>None Accounting loss before income tax</t>
   </si>
   <si>
@@ -252,6 +276,9 @@
     <t>None Bank borrowings</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None facilities facilities</t>
   </si>
   <si>
@@ -306,6 +333,9 @@
     <t>Totals</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>None Electricity derivatives at fair value through OCI</t>
   </si>
   <si>
@@ -315,9 +345,15 @@
     <t>None Non-current</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None 155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Cash flow hedge reserve Balance at 1 January</t>
   </si>
   <si>
@@ -360,6 +396,9 @@
     <t>Total Balance at 31 December</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Type of goods Sale of goods</t>
   </si>
   <si>
@@ -379,6 +418,9 @@
   </si>
   <si>
     <t>Timing of revenue recognition Total revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>None Commission revenue</t>
@@ -760,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,13 +821,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -793,19 +838,25 @@
       <c r="D2">
         <v>19589</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3">
         <v>28259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -815,13 +866,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,13 +885,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -848,13 +902,16 @@
       <c r="D2">
         <v>5119</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -862,13 +919,16 @@
       <c r="D3">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -876,13 +936,16 @@
       <c r="D4">
         <v>3027</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -890,13 +953,16 @@
       <c r="D5">
         <v>8217</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -904,13 +970,16 @@
       <c r="D6">
         <v>5473</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -918,13 +987,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -932,19 +1004,25 @@
       <c r="D8">
         <v>-1529</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
       <c r="D9">
         <v>3944</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -954,13 +1032,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,13 +1051,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -987,13 +1068,16 @@
       <c r="D2">
         <v>-28082</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1001,13 +1085,16 @@
       <c r="D3">
         <v>8425</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1015,13 +1102,16 @@
       <c r="D4">
         <v>-192</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1029,13 +1119,16 @@
       <c r="D5">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -1043,13 +1136,16 @@
       <c r="D6">
         <v>-87</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -1057,13 +1153,16 @@
       <c r="D7">
         <v>-8217</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1071,13 +1170,16 @@
       <c r="D8">
         <v>-20678</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -1085,13 +1187,16 @@
       <c r="D9">
         <v>6203</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -1099,13 +1204,16 @@
       <c r="D10">
         <v>-2276</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1113,13 +1221,16 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1127,19 +1238,25 @@
       <c r="D12">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>2019</v>
       </c>
       <c r="D13">
         <v>-3944</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1149,13 +1266,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,13 +1285,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1182,13 +1302,16 @@
       <c r="D2">
         <v>-11017</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1196,13 +1319,16 @@
       <c r="D3">
         <v>3027</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1210,13 +1336,16 @@
       <c r="D4">
         <v>13747</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1224,13 +1353,16 @@
       <c r="D5">
         <v>5757</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1238,13 +1370,16 @@
       <c r="D6">
         <v>-14534</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -1252,13 +1387,16 @@
       <c r="D7">
         <v>-1529</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1266,19 +1404,25 @@
       <c r="D8">
         <v>5046</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
       <c r="D9">
         <v>-11017</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1288,13 +1432,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,13 +1451,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1321,13 +1468,16 @@
       <c r="D2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1335,13 +1485,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1349,13 +1502,16 @@
       <c r="D4">
         <v>6559</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1363,13 +1519,16 @@
       <c r="D5">
         <v>-302</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -1377,13 +1536,16 @@
       <c r="D6">
         <v>-13952</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -1391,13 +1553,16 @@
       <c r="D7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1405,13 +1570,16 @@
       <c r="D8">
         <v>16238</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1419,13 +1587,16 @@
       <c r="D9">
         <v>316</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1433,13 +1604,16 @@
       <c r="D10">
         <v>881</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1447,13 +1621,16 @@
       <c r="D11">
         <v>-4213</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -1461,13 +1638,16 @@
       <c r="D12">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -1475,13 +1655,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -1489,13 +1672,16 @@
       <c r="D14">
         <v>5757</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -1503,13 +1689,16 @@
       <c r="D15">
         <v>24223</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -1517,13 +1706,16 @@
       <c r="D16">
         <v>-18466</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -1531,13 +1723,16 @@
       <c r="D17">
         <v>5757</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -1545,13 +1740,16 @@
       <c r="D18">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -1559,13 +1757,16 @@
       <c r="D19">
         <v>-12662</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -1573,13 +1774,16 @@
       <c r="D20">
         <v>7055</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -1587,13 +1791,16 @@
       <c r="D21">
         <v>-443</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>2019</v>
@@ -1601,13 +1808,16 @@
       <c r="D22">
         <v>-10221</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>2019</v>
@@ -1615,13 +1825,16 @@
       <c r="D23">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>2019</v>
@@ -1629,13 +1842,16 @@
       <c r="D24">
         <v>4671</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>2019</v>
@@ -1643,13 +1859,16 @@
       <c r="D25">
         <v>454</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>2019</v>
@@ -1657,13 +1876,16 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>2019</v>
@@ -1671,13 +1893,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>2019</v>
@@ -1685,13 +1910,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>2019</v>
@@ -1699,13 +1927,16 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C30">
         <v>2019</v>
@@ -1713,13 +1944,16 @@
       <c r="D30">
         <v>-11017</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C31">
         <v>2019</v>
@@ -1727,13 +1961,16 @@
       <c r="D31">
         <v>12309</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <v>2019</v>
@@ -1741,13 +1978,16 @@
       <c r="D32">
         <v>-23326</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C33">
         <v>2019</v>
@@ -1755,13 +1995,16 @@
       <c r="D33">
         <v>-11017</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -1769,13 +2012,16 @@
       <c r="D34">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -1783,13 +2029,16 @@
       <c r="D35">
         <v>-12662</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>2020</v>
@@ -1797,13 +2046,16 @@
       <c r="D36">
         <v>496</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>2020</v>
@@ -1811,13 +2063,16 @@
       <c r="D37">
         <v>-141</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>2020</v>
@@ -1825,13 +2080,16 @@
       <c r="D38">
         <v>3730</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>2020</v>
@@ -1839,13 +2097,16 @@
       <c r="D39">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>2020</v>
@@ -1853,13 +2114,16 @@
       <c r="D40">
         <v>-11567</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>2020</v>
@@ -1867,13 +2131,16 @@
       <c r="D41">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>2020</v>
@@ -1881,13 +2148,16 @@
       <c r="D42">
         <v>-881</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C43">
         <v>2020</v>
@@ -1895,13 +2165,16 @@
       <c r="D43">
         <v>4213</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>2020</v>
@@ -1909,13 +2182,16 @@
       <c r="D44">
         <v>-162</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>2020</v>
@@ -1923,13 +2199,16 @@
       <c r="D45">
         <v>-16775</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C46">
         <v>2020</v>
@@ -1937,13 +2216,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -1951,13 +2233,16 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C48">
         <v>2020</v>
@@ -1965,13 +2250,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C49">
         <v>2020</v>
@@ -1979,13 +2267,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <v>2019</v>
@@ -1993,13 +2284,16 @@
       <c r="D50">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C51">
         <v>2019</v>
@@ -2007,13 +2301,16 @@
       <c r="D51">
         <v>5181</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>2019</v>
@@ -2021,13 +2318,16 @@
       <c r="D52">
         <v>-1034</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>2019</v>
@@ -2035,13 +2335,16 @@
       <c r="D53">
         <v>-443</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>2019</v>
@@ -2049,13 +2352,16 @@
       <c r="D54">
         <v>-12</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C55">
         <v>2019</v>
@@ -2063,13 +2369,16 @@
       <c r="D55">
         <v>-643</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C56">
         <v>2019</v>
@@ -2077,13 +2386,16 @@
       <c r="D56">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C57">
         <v>2019</v>
@@ -2091,13 +2403,16 @@
       <c r="D57">
         <v>454</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>2019</v>
@@ -2105,13 +2420,16 @@
       <c r="D58">
         <v>-79</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <v>2019</v>
@@ -2119,13 +2437,16 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <v>2019</v>
@@ -2133,13 +2454,16 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>2019</v>
@@ -2147,13 +2471,16 @@
       <c r="D61">
         <v>3517</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C62">
         <v>2019</v>
@@ -2161,13 +2488,16 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>2019</v>
@@ -2175,13 +2505,16 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <v>2019</v>
@@ -2189,19 +2522,25 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C65">
         <v>2019</v>
       </c>
       <c r="D65">
         <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2211,13 +2550,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,13 +2569,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -2244,19 +2586,25 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3">
         <v>4000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2266,13 +2614,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,13 +2633,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -2299,13 +2650,16 @@
       <c r="D2">
         <v>52100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -2313,13 +2667,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -2327,13 +2684,16 @@
       <c r="D4">
         <v>3273</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -2341,13 +2701,16 @@
       <c r="D5">
         <v>48827</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -2355,13 +2718,16 @@
       <c r="D6">
         <v>13500</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -2369,13 +2735,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -2383,13 +2752,16 @@
       <c r="D8">
         <v>13500</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -2397,13 +2769,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -2411,13 +2786,16 @@
       <c r="D10">
         <v>52100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -2425,13 +2803,16 @@
       <c r="D11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -2439,13 +2820,16 @@
       <c r="D12">
         <v>1023</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2453,13 +2837,16 @@
       <c r="D13">
         <v>47077</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -2467,13 +2854,16 @@
       <c r="D14">
         <v>13500</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2481,13 +2871,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2495,19 +2888,25 @@
       <c r="D16">
         <v>13500</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17">
         <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2517,13 +2916,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2536,13 +2935,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -2550,13 +2952,16 @@
       <c r="D2">
         <v>4343</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -2564,13 +2969,16 @@
       <c r="D3">
         <v>541</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -2578,13 +2986,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -2592,13 +3003,16 @@
       <c r="D5">
         <v>4884</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -2606,13 +3020,16 @@
       <c r="D6">
         <v>4846</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -2620,13 +3037,16 @@
       <c r="D7">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -2634,13 +3054,16 @@
       <c r="D8">
         <v>3725</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -2648,13 +3071,16 @@
       <c r="D9">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -2662,13 +3088,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -2676,13 +3105,16 @@
       <c r="D11">
         <v>3884</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -2690,13 +3122,16 @@
       <c r="D12">
         <v>3884</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -2704,13 +3139,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -2718,13 +3156,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -2732,13 +3173,16 @@
       <c r="D15">
         <v>865</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -2746,13 +3190,16 @@
       <c r="D16">
         <v>-518</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -2760,13 +3207,16 @@
       <c r="D17">
         <v>347</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -2774,13 +3224,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -2788,13 +3241,16 @@
       <c r="D19">
         <v>347</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -2802,13 +3258,16 @@
       <c r="D20">
         <v>4806</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -2816,13 +3275,16 @@
       <c r="D21">
         <v>36032</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -2830,13 +3292,16 @@
       <c r="D22">
         <v>-336</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -2844,13 +3309,16 @@
       <c r="D23">
         <v>40502</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -2858,13 +3326,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -2872,13 +3343,16 @@
       <c r="D25">
         <v>40502</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -2886,13 +3360,16 @@
       <c r="D26">
         <v>6983</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>2020</v>
@@ -2900,13 +3377,16 @@
       <c r="D27">
         <v>1286</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -2914,13 +3394,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -2928,13 +3411,16 @@
       <c r="D29">
         <v>8269</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>2020</v>
@@ -2942,13 +3428,16 @@
       <c r="D30">
         <v>729</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>2020</v>
@@ -2956,13 +3445,16 @@
       <c r="D31">
         <v>7540</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -2970,13 +3462,16 @@
       <c r="D32">
         <v>19857</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -2984,13 +3479,16 @@
       <c r="D33">
         <v>38883</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -2998,13 +3496,16 @@
       <c r="D34">
         <v>-854</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -3012,13 +3513,16 @@
       <c r="D35">
         <v>57886</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C36">
         <v>2020</v>
@@ -3026,19 +3530,25 @@
       <c r="D36">
         <v>9459</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C37">
         <v>2020</v>
       </c>
       <c r="D37">
         <v>48427</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3048,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3067,13 +3577,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3081,13 +3594,16 @@
       <c r="D2">
         <v>25569</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3095,13 +3611,16 @@
       <c r="D3">
         <v>2935</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3109,13 +3628,16 @@
       <c r="D4">
         <v>1053</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -3123,13 +3645,16 @@
       <c r="D5">
         <v>29557</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -3137,19 +3662,25 @@
       <c r="D6">
         <v>25662</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7">
         <v>3895</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3159,13 +3690,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3178,13 +3709,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3192,19 +3726,25 @@
       <c r="D2">
         <v>150997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3">
         <v>150997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3214,13 +3754,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3233,13 +3773,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3247,13 +3790,16 @@
       <c r="D2">
         <v>29543</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3261,13 +3807,16 @@
       <c r="D3">
         <v>-31598</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3275,13 +3824,16 @@
       <c r="D4">
         <v>-2055</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -3289,13 +3841,16 @@
       <c r="D5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -3303,13 +3858,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -3317,13 +3875,16 @@
       <c r="D7">
         <v>5922</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -3331,13 +3892,16 @@
       <c r="D8">
         <v>-8448</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -3345,13 +3909,16 @@
       <c r="D9">
         <v>-2526</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -3359,13 +3926,16 @@
       <c r="D10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -3373,13 +3943,16 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -3387,13 +3960,16 @@
       <c r="D12">
         <v>325</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -3401,13 +3977,16 @@
       <c r="D13">
         <v>325</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -3415,13 +3994,16 @@
       <c r="D14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -3429,13 +4011,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -3443,13 +4028,16 @@
       <c r="D16">
         <v>35790</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -3457,13 +4045,16 @@
       <c r="D17">
         <v>-40046</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -3471,13 +4062,16 @@
       <c r="D18">
         <v>-4256</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -3485,13 +4079,16 @@
       <c r="D19">
         <v>41448</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -3499,13 +4096,16 @@
       <c r="D20">
         <v>-11905</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -3513,13 +4113,16 @@
       <c r="D21">
         <v>29543</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>2019</v>
@@ -3527,13 +4130,16 @@
       <c r="D22">
         <v>2019</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>2019</v>
@@ -3541,13 +4147,16 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>2019</v>
@@ -3555,13 +4164,16 @@
       <c r="D24">
         <v>3049</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>2019</v>
@@ -3569,13 +4181,16 @@
       <c r="D25">
         <v>2873</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>2019</v>
@@ -3583,13 +4198,16 @@
       <c r="D26">
         <v>5922</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>2019</v>
@@ -3597,13 +4215,16 @@
       <c r="D27">
         <v>2019</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>2019</v>
@@ -3611,13 +4232,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>2019</v>
@@ -3625,13 +4249,16 @@
       <c r="D29">
         <v>325</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>2019</v>
@@ -3639,13 +4266,16 @@
       <c r="D30">
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>2019</v>
@@ -3653,13 +4283,16 @@
       <c r="D31">
         <v>2019</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>2019</v>
@@ -3667,13 +4300,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>2019</v>
@@ -3681,13 +4317,16 @@
       <c r="D33">
         <v>44822</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>2019</v>
@@ -3695,19 +4334,25 @@
       <c r="D34">
         <v>-9032</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>2019</v>
       </c>
       <c r="D35">
         <v>35790</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3717,13 +4362,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3736,13 +4381,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3750,13 +4398,16 @@
       <c r="D2">
         <v>1697</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3764,13 +4415,16 @@
       <c r="D3">
         <v>11927</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3778,13 +4432,16 @@
       <c r="D4">
         <v>13624</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -3792,13 +4449,16 @@
       <c r="D5">
         <v>1390</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3806,19 +4466,25 @@
       <c r="D6">
         <v>10609</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
       <c r="D7">
         <v>11999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3828,13 +4494,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3847,13 +4513,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -3861,13 +4530,16 @@
       <c r="D2">
         <v>214911</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3875,13 +4547,16 @@
       <c r="D3">
         <v>214911</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3889,13 +4564,16 @@
       <c r="D4">
         <v>190814</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -3903,13 +4581,16 @@
       <c r="D5">
         <v>24097</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -3917,13 +4598,16 @@
       <c r="D6">
         <v>214911</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -3931,13 +4615,16 @@
       <c r="D7">
         <v>214911</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -3945,13 +4632,16 @@
       <c r="D8">
         <v>214911</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -3959,13 +4649,16 @@
       <c r="D9">
         <v>229785</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -3973,13 +4666,16 @@
       <c r="D10">
         <v>229785</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -3987,13 +4683,16 @@
       <c r="D11">
         <v>197789</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -4001,13 +4700,16 @@
       <c r="D12">
         <v>31996</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -4015,13 +4717,16 @@
       <c r="D13">
         <v>229785</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -4029,19 +4734,25 @@
       <c r="D14">
         <v>229785</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>2019</v>
       </c>
       <c r="D15">
         <v>229785</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4051,13 +4762,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4070,13 +4781,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4084,19 +4798,25 @@
       <c r="D2">
         <v>775</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3">
         <v>780</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4106,13 +4826,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,13 +4845,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4139,13 +4862,16 @@
       <c r="D2">
         <v>13054</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -4153,13 +4879,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -4167,13 +4896,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -4181,13 +4913,16 @@
       <c r="D5">
         <v>577</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -4195,13 +4930,16 @@
       <c r="D6">
         <v>13631</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -4209,13 +4947,16 @@
       <c r="D7">
         <v>5350</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -4223,13 +4964,16 @@
       <c r="D8">
         <v>4202</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -4237,13 +4981,16 @@
       <c r="D9">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -4251,19 +4998,25 @@
       <c r="D10">
         <v>497</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11">
         <v>10144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4273,13 +5026,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4292,13 +5045,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4306,19 +5062,25 @@
       <c r="D2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3">
         <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4328,13 +5090,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4347,13 +5109,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4361,13 +5126,16 @@
       <c r="D2">
         <v>-203</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -4375,13 +5143,16 @@
       <c r="D3">
         <v>-336</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -4389,13 +5160,16 @@
       <c r="D4">
         <v>-539</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -4403,13 +5177,16 @@
       <c r="D5">
         <v>-303</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -4417,19 +5194,25 @@
       <c r="D6">
         <v>-315</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
       <c r="D7">
         <v>-618</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4439,13 +5222,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4458,13 +5241,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4472,13 +5258,16 @@
       <c r="D2">
         <v>18547</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -4486,13 +5275,16 @@
       <c r="D3">
         <v>8651</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -4500,13 +5292,16 @@
       <c r="D4">
         <v>27198</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -4514,13 +5309,16 @@
       <c r="D5">
         <v>19816</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -4528,19 +5326,25 @@
       <c r="D6">
         <v>7137</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
       <c r="D7">
         <v>26953</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4550,13 +5354,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4569,13 +5373,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4583,13 +5390,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -4597,13 +5407,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -4611,13 +5424,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -4625,13 +5441,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -4639,13 +5458,16 @@
       <c r="D6">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -4653,13 +5475,16 @@
       <c r="D7">
         <v>29702</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -4667,19 +5492,25 @@
       <c r="D8">
         <v>29753</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
       <c r="D9">
         <v>12453</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4701,13 +5532,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4720,13 +5551,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4734,13 +5568,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -4748,13 +5585,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -4762,19 +5602,25 @@
       <c r="D4">
         <v>47672</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5">
         <v>54535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4784,13 +5630,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4803,13 +5649,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4817,13 +5666,16 @@
       <c r="D2">
         <v>54535</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -4831,13 +5683,16 @@
       <c r="D3">
         <v>1586</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -4845,13 +5700,16 @@
       <c r="D4">
         <v>-8448</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -4859,13 +5717,16 @@
       <c r="D5">
         <v>47672</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -4873,13 +5734,16 @@
       <c r="D6">
         <v>59249</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -4887,13 +5751,16 @@
       <c r="D7">
         <v>-7587</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -4901,19 +5768,25 @@
       <c r="D8">
         <v>2873</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
       <c r="D9">
         <v>54535</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4923,13 +5796,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4942,13 +5815,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -4956,19 +5832,25 @@
       <c r="D2">
         <v>47672</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3">
         <v>54535</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4978,13 +5860,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4997,13 +5879,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -5011,13 +5896,16 @@
       <c r="D2">
         <v>90430</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -5025,13 +5913,16 @@
       <c r="D3">
         <v>376</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -5039,13 +5930,16 @@
       <c r="D4">
         <v>-149</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -5053,13 +5947,16 @@
       <c r="D5">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -5067,13 +5964,16 @@
       <c r="D6">
         <v>90731</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -5081,13 +5981,16 @@
       <c r="D7">
         <v>90235</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -5095,13 +5998,16 @@
       <c r="D8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -5109,13 +6015,16 @@
       <c r="D9">
         <v>351</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -5123,13 +6032,16 @@
       <c r="D10">
         <v>-154</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -5137,13 +6049,16 @@
       <c r="D11">
         <v>90489</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -5151,13 +6066,16 @@
       <c r="D12">
         <v>242</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -5165,13 +6083,16 @@
       <c r="D13">
         <v>195</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -5179,13 +6100,16 @@
       <c r="D14">
         <v>314181</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -5193,13 +6117,16 @@
       <c r="D15">
         <v>5232</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -5207,13 +6134,16 @@
       <c r="D16">
         <v>-1122</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -5221,13 +6151,16 @@
       <c r="D17">
         <v>-74</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -5235,13 +6168,16 @@
       <c r="D18">
         <v>318217</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -5249,13 +6185,16 @@
       <c r="D19">
         <v>312388</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -5263,13 +6202,16 @@
       <c r="D20">
         <v>827</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -5277,13 +6219,16 @@
       <c r="D21">
         <v>4618</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -5291,13 +6236,16 @@
       <c r="D22">
         <v>-1182</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -5305,13 +6253,16 @@
       <c r="D23">
         <v>316651</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -5319,13 +6270,16 @@
       <c r="D24">
         <v>1566</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>2019</v>
@@ -5333,13 +6287,16 @@
       <c r="D25">
         <v>1793</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -5347,13 +6304,16 @@
       <c r="D26">
         <v>1628</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>2020</v>
@@ -5361,13 +6321,16 @@
       <c r="D27">
         <v>34643</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -5375,13 +6338,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -5389,13 +6355,16 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2020</v>
@@ -5403,13 +6372,16 @@
       <c r="D30">
         <v>36271</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>2020</v>
@@ -5417,13 +6389,16 @@
       <c r="D31">
         <v>1628</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -5431,13 +6406,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -5445,13 +6423,16 @@
       <c r="D33">
         <v>20598</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -5459,13 +6440,16 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -5473,13 +6457,16 @@
       <c r="D35">
         <v>22226</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>2020</v>
@@ -5487,13 +6474,16 @@
       <c r="D36">
         <v>14045</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>2019</v>
@@ -5501,13 +6491,16 @@
       <c r="D37">
         <v>1743</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>2020</v>
@@ -5515,13 +6508,16 @@
       <c r="D38">
         <v>2538</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>2020</v>
@@ -5529,13 +6525,16 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>2020</v>
@@ -5543,13 +6542,16 @@
       <c r="D40">
         <v>-65</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>2020</v>
@@ -5557,13 +6559,16 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>2020</v>
@@ -5571,13 +6576,16 @@
       <c r="D42">
         <v>2473</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>2020</v>
@@ -5585,55 +6593,67 @@
       <c r="D43">
         <v>795</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>2020</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>2020</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>2020</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="C44">
-        <v>2020</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45">
-        <v>2020</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46">
-        <v>2020</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -5641,13 +6661,16 @@
       <c r="D47">
         <v>795</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>2020</v>
@@ -5655,13 +6678,16 @@
       <c r="D48">
         <v>1678</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>2019</v>
@@ -5669,13 +6695,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>2020</v>
@@ -5683,13 +6712,16 @@
       <c r="D50">
         <v>408777</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>2020</v>
@@ -5697,13 +6729,16 @@
       <c r="D51">
         <v>40251</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>2020</v>
@@ -5711,13 +6746,16 @@
       <c r="D52">
         <v>-1336</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>2020</v>
@@ -5725,13 +6763,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>2020</v>
@@ -5739,13 +6780,16 @@
       <c r="D54">
         <v>447692</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C55">
         <v>2020</v>
@@ -5753,13 +6797,16 @@
       <c r="D55">
         <v>405046</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>2020</v>
@@ -5767,13 +6814,16 @@
       <c r="D56">
         <v>884</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C57">
         <v>2020</v>
@@ -5781,13 +6831,16 @@
       <c r="D57">
         <v>25567</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>2020</v>
@@ -5795,13 +6848,16 @@
       <c r="D58">
         <v>-1336</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>2020</v>
@@ -5809,13 +6865,16 @@
       <c r="D59">
         <v>430161</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C60">
         <v>2020</v>
@@ -5823,19 +6882,25 @@
       <c r="D60">
         <v>17531</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C61">
         <v>2019</v>
       </c>
       <c r="D61">
         <v>3731</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
